--- a/testdata/invalid-testdata/excel2xml/invalid-text-prop.xlsx
+++ b/testdata/invalid-testdata/excel2xml/invalid-text-prop.xlsx
@@ -176,14 +176,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -315,47 +315,41 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -674,484 +668,484 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="20" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="20" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="20" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="20" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="20" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="22" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="22" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="22" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="22" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="22" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="79" max="79" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="80" max="80" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="81" max="81" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="82" max="82" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="83" max="83" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="84" max="84" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="85" max="85" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="86" max="86" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="87" max="87" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="88" max="88" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="89" max="89" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="90" max="90" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="91" max="91" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="95" max="95" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="96" max="96" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="97" max="97" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="98" max="98" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="99" max="99" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="100" max="100" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="101" max="101" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="102" max="102" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="103" max="103" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="104" max="104" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="105" max="105" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="110" max="110" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="111" max="111" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="113" max="113" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="114" max="114" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="115" max="115" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="116" max="116" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="117" max="117" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="118" max="118" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="119" max="119" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="120" max="120" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="121" max="121" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="122" max="122" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="123" max="123" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="124" max="124" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="125" max="125" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="126" max="126" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="127" max="127" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="128" max="128" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="129" max="129" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="130" max="130" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="131" max="131" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="132" max="132" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="133" max="133" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="134" max="134" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="135" max="135" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="136" max="136" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="137" max="137" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="138" max="138" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="139" max="139" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="140" max="140" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="141" max="141" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="142" max="142" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="143" max="143" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="144" max="144" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="145" max="145" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="146" max="146" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="147" max="147" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="148" max="148" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="149" max="149" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="150" max="150" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="151" max="151" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="152" max="152" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="153" max="153" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="154" max="154" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="155" max="155" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="156" max="156" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="157" max="157" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="158" max="158" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="159" max="159" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="160" max="160" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="161" max="161" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="162" max="162" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="163" max="163" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="164" max="164" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="165" max="165" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="166" max="166" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="167" max="167" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="168" max="168" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="169" max="169" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="170" max="170" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="171" max="171" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="172" max="172" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="173" max="173" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="174" max="174" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="175" max="175" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="176" max="176" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="177" max="177" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="178" max="178" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="179" max="179" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="180" max="180" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="181" max="181" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="182" max="182" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="183" max="183" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="184" max="184" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="185" max="185" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="186" max="186" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="187" max="187" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="188" max="188" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="189" max="189" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="190" max="190" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="191" max="191" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="192" max="192" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="193" max="193" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="194" max="194" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="195" max="195" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="196" max="196" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="197" max="197" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="198" max="198" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="199" max="199" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="200" max="200" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="201" max="201" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="202" max="202" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="203" max="203" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="204" max="204" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="205" max="205" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="206" max="206" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="207" max="207" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="208" max="208" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="209" max="209" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="210" max="210" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="211" max="211" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="212" max="212" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="213" max="213" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="214" max="214" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="215" max="215" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="216" max="216" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="217" max="217" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="218" max="218" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="219" max="219" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="220" max="220" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="221" max="221" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="222" max="222" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="223" max="223" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="224" max="224" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="225" max="225" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="226" max="226" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="227" max="227" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="228" max="228" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="229" max="229" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="230" max="230" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="231" max="231" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="232" max="232" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="233" max="233" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="234" max="234" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="235" max="235" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="236" max="236" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="237" max="237" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="238" max="238" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="239" max="239" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="240" max="240" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="241" max="241" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="242" max="242" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="243" max="243" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="244" max="244" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="245" max="245" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="246" max="246" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="247" max="247" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="248" max="248" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="249" max="249" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="250" max="250" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="251" max="251" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="252" max="252" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="253" max="253" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="254" max="254" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="255" max="255" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="256" max="256" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="257" max="257" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="258" max="258" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="259" max="259" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="260" max="260" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="261" max="261" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="262" max="262" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="263" max="263" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="264" max="264" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="265" max="265" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="266" max="266" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="267" max="267" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="268" max="268" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="269" max="269" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="270" max="270" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="271" max="271" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="272" max="272" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="273" max="273" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="274" max="274" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="275" max="275" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="276" max="276" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="277" max="277" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="278" max="278" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="279" max="279" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="280" max="280" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="281" max="281" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="282" max="282" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="283" max="283" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="284" max="284" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="285" max="285" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="286" max="286" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="287" max="287" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="288" max="288" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="289" max="289" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="290" max="290" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="291" max="291" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="292" max="292" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="293" max="293" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="294" max="294" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="295" max="295" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="296" max="296" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="297" max="297" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="298" max="298" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="299" max="299" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="300" max="300" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="301" max="301" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="302" max="302" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="303" max="303" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="304" max="304" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="305" max="305" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="306" max="306" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="307" max="307" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="308" max="308" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="309" max="309" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="310" max="310" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="311" max="311" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="312" max="312" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="313" max="313" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="314" max="314" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="315" max="315" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="316" max="316" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="317" max="317" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="318" max="318" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="319" max="319" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="320" max="320" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="321" max="321" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="322" max="322" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="323" max="323" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="324" max="324" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="325" max="325" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="326" max="326" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="327" max="327" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="328" max="328" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="329" max="329" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="330" max="330" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="331" max="331" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="332" max="332" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="333" max="333" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="334" max="334" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="335" max="335" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="336" max="336" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="337" max="337" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="338" max="338" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="339" max="339" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="340" max="340" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="341" max="341" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="342" max="342" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="343" max="343" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="344" max="344" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="345" max="345" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="346" max="346" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="347" max="347" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="348" max="348" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="349" max="349" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="350" max="350" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="351" max="351" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="352" max="352" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="353" max="353" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="354" max="354" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="355" max="355" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="356" max="356" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="357" max="357" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="358" max="358" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="359" max="359" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="360" max="360" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="361" max="361" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="362" max="362" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="363" max="363" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="364" max="364" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="365" max="365" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="366" max="366" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="367" max="367" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="368" max="368" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="369" max="369" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="370" max="370" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="371" max="371" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="372" max="372" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="373" max="373" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="374" max="374" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="375" max="375" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="376" max="376" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="377" max="377" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="378" max="378" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="379" max="379" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="380" max="380" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="381" max="381" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="382" max="382" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="383" max="383" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="384" max="384" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="385" max="385" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="386" max="386" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="387" max="387" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="388" max="388" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="389" max="389" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="390" max="390" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="391" max="391" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="392" max="392" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="393" max="393" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="394" max="394" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="395" max="395" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="396" max="396" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="397" max="397" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="398" max="398" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="399" max="399" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="400" max="400" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="401" max="401" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="402" max="402" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="403" max="403" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="404" max="404" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="405" max="405" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="406" max="406" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="407" max="407" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="408" max="408" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="409" max="409" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="410" max="410" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="411" max="411" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="412" max="412" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="413" max="413" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="414" max="414" style="22" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="415" max="415" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="416" max="416" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="417" max="417" style="22" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="418" max="418" style="22" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="419" max="419" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="420" max="420" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="421" max="421" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="422" max="422" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="423" max="423" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="424" max="424" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="425" max="425" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="426" max="426" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="427" max="427" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="428" max="428" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="429" max="429" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="430" max="430" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="431" max="431" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="432" max="432" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="433" max="433" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="434" max="434" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="435" max="435" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="436" max="436" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="437" max="437" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="438" max="438" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="439" max="439" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="440" max="440" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="441" max="441" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="442" max="442" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="443" max="443" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="444" max="444" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="445" max="445" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="446" max="446" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="447" max="447" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="448" max="448" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="449" max="449" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="450" max="450" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="451" max="451" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="452" max="452" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="453" max="453" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="454" max="454" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="455" max="455" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="456" max="456" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="457" max="457" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="458" max="458" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="459" max="459" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="460" max="460" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="461" max="461" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="462" max="462" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="463" max="463" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="464" max="464" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="465" max="465" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="466" max="466" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="467" max="467" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="468" max="468" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="469" max="469" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="470" max="470" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="471" max="471" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="472" max="472" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="473" max="473" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="474" max="474" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="475" max="475" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="476" max="476" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="477" max="477" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="478" max="478" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="18" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="18" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="20" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="20" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="20" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="20" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="20" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="20" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="97" max="97" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="99" max="99" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="100" max="100" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="101" max="101" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="102" max="102" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="103" max="103" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="104" max="104" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="105" max="105" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="110" max="110" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="113" max="113" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="114" max="114" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="115" max="115" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="116" max="116" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="117" max="117" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="118" max="118" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="119" max="119" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="120" max="120" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="121" max="121" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="122" max="122" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="123" max="123" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="124" max="124" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="125" max="125" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="126" max="126" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="127" max="127" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="128" max="128" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="129" max="129" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="130" max="130" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="131" max="131" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="132" max="132" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="133" max="133" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="134" max="134" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="135" max="135" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="136" max="136" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="137" max="137" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="138" max="138" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="139" max="139" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="140" max="140" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="141" max="141" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="142" max="142" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="143" max="143" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="144" max="144" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="145" max="145" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="146" max="146" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="147" max="147" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="148" max="148" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="149" max="149" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="150" max="150" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="151" max="151" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="152" max="152" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="153" max="153" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="154" max="154" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="155" max="155" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="156" max="156" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="157" max="157" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="158" max="158" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="159" max="159" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="160" max="160" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="161" max="161" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="162" max="162" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="163" max="163" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="164" max="164" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="165" max="165" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="166" max="166" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="167" max="167" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="168" max="168" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="169" max="169" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="170" max="170" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="171" max="171" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="172" max="172" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="173" max="173" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="174" max="174" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="175" max="175" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="176" max="176" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="177" max="177" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="178" max="178" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="179" max="179" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="180" max="180" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="181" max="181" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="182" max="182" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="183" max="183" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="184" max="184" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="185" max="185" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="186" max="186" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="187" max="187" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="188" max="188" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="189" max="189" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="190" max="190" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="191" max="191" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="192" max="192" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="193" max="193" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="194" max="194" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="195" max="195" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="196" max="196" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="197" max="197" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="198" max="198" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="199" max="199" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="200" max="200" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="201" max="201" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="202" max="202" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="203" max="203" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="204" max="204" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="205" max="205" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="206" max="206" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="207" max="207" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="208" max="208" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="209" max="209" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="210" max="210" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="211" max="211" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="212" max="212" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="213" max="213" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="214" max="214" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="215" max="215" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="216" max="216" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="217" max="217" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="218" max="218" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="219" max="219" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="220" max="220" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="221" max="221" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="222" max="222" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="223" max="223" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="224" max="224" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="225" max="225" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="226" max="226" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="227" max="227" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="228" max="228" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="229" max="229" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="230" max="230" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="231" max="231" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="232" max="232" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="233" max="233" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="234" max="234" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="235" max="235" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="236" max="236" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="237" max="237" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="238" max="238" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="239" max="239" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="240" max="240" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="241" max="241" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="242" max="242" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="243" max="243" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="244" max="244" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="245" max="245" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="246" max="246" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="247" max="247" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="248" max="248" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="249" max="249" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="250" max="250" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="251" max="251" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="252" max="252" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="253" max="253" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="254" max="254" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="255" max="255" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="256" max="256" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="257" max="257" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="258" max="258" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="259" max="259" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="260" max="260" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="261" max="261" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="262" max="262" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="263" max="263" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="264" max="264" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="265" max="265" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="266" max="266" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="267" max="267" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="268" max="268" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="269" max="269" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="270" max="270" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="271" max="271" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="272" max="272" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="273" max="273" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="274" max="274" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="275" max="275" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="276" max="276" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="277" max="277" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="278" max="278" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="279" max="279" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="280" max="280" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="281" max="281" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="282" max="282" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="283" max="283" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="284" max="284" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="285" max="285" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="286" max="286" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="287" max="287" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="288" max="288" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="289" max="289" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="290" max="290" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="291" max="291" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="292" max="292" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="293" max="293" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="294" max="294" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="295" max="295" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="296" max="296" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="297" max="297" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="298" max="298" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="299" max="299" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="300" max="300" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="301" max="301" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="302" max="302" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="303" max="303" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="304" max="304" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="305" max="305" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="306" max="306" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="307" max="307" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="308" max="308" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="309" max="309" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="310" max="310" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="311" max="311" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="312" max="312" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="313" max="313" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="314" max="314" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="315" max="315" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="316" max="316" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="317" max="317" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="318" max="318" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="319" max="319" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="320" max="320" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="321" max="321" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="322" max="322" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="323" max="323" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="324" max="324" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="325" max="325" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="326" max="326" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="327" max="327" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="328" max="328" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="329" max="329" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="330" max="330" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="331" max="331" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="332" max="332" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="333" max="333" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="334" max="334" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="335" max="335" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="336" max="336" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="337" max="337" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="338" max="338" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="339" max="339" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="340" max="340" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="341" max="341" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="342" max="342" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="343" max="343" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="344" max="344" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="345" max="345" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="346" max="346" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="347" max="347" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="348" max="348" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="349" max="349" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="350" max="350" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="351" max="351" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="352" max="352" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="353" max="353" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="354" max="354" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="355" max="355" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="356" max="356" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="357" max="357" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="358" max="358" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="359" max="359" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="360" max="360" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="361" max="361" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="362" max="362" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="363" max="363" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="364" max="364" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="365" max="365" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="366" max="366" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="367" max="367" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="368" max="368" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="369" max="369" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="370" max="370" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="371" max="371" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="372" max="372" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="373" max="373" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="374" max="374" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="375" max="375" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="376" max="376" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="377" max="377" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="378" max="378" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="379" max="379" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="380" max="380" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="381" max="381" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="382" max="382" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="383" max="383" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="384" max="384" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="385" max="385" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="386" max="386" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="387" max="387" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="388" max="388" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="389" max="389" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="390" max="390" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="391" max="391" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="392" max="392" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="393" max="393" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="394" max="394" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="395" max="395" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="396" max="396" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="397" max="397" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="398" max="398" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="399" max="399" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="400" max="400" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="401" max="401" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="402" max="402" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="403" max="403" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="404" max="404" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="405" max="405" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="406" max="406" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="407" max="407" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="408" max="408" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="409" max="409" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="410" max="410" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="411" max="411" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="412" max="412" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="413" max="413" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="414" max="414" style="20" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="415" max="415" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="416" max="416" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="417" max="417" style="20" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="418" max="418" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="419" max="419" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="420" max="420" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="421" max="421" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="422" max="422" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="423" max="423" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="424" max="424" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="425" max="425" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="426" max="426" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="427" max="427" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="428" max="428" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="429" max="429" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="430" max="430" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="431" max="431" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="432" max="432" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="433" max="433" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="434" max="434" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="435" max="435" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="436" max="436" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="437" max="437" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="438" max="438" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="439" max="439" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="440" max="440" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="441" max="441" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="442" max="442" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="443" max="443" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="444" max="444" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="445" max="445" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="446" max="446" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="447" max="447" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="448" max="448" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="449" max="449" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="450" max="450" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="451" max="451" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="452" max="452" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="453" max="453" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="454" max="454" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="455" max="455" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="456" max="456" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="457" max="457" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="458" max="458" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="459" max="459" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="460" max="460" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="461" max="461" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="462" max="462" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="463" max="463" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="464" max="464" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="465" max="465" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="466" max="466" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="467" max="467" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="468" max="468" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="469" max="469" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="470" max="470" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="471" max="471" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="472" max="472" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="473" max="473" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="474" max="474" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="475" max="475" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="476" max="476" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="477" max="477" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="478" max="478" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -3649,7 +3643,7 @@
       <c r="B6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -4130,7 +4124,7 @@
       <c r="RI6" s="17"/>
       <c r="RJ6" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="10" t="s">
@@ -4614,7 +4608,7 @@
       <c r="RI7" s="6"/>
       <c r="RJ7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -5096,7 +5090,7 @@
       <c r="RI8" s="6"/>
       <c r="RJ8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
@@ -5576,7 +5570,7 @@
       <c r="RI9" s="6"/>
       <c r="RJ9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -6056,7 +6050,7 @@
       <c r="RI10" s="6"/>
       <c r="RJ10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -6536,7 +6530,7 @@
       <c r="RI11" s="6"/>
       <c r="RJ11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
@@ -7019,7 +7013,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -7496,7 +7490,7 @@
       <c r="RI13" s="6"/>
       <c r="RJ13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
@@ -7979,7 +7973,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -8456,7 +8450,7 @@
       <c r="RI15" s="6"/>
       <c r="RJ15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
@@ -8939,7 +8933,7 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
